--- a/experiment/results.xlsx
+++ b/experiment/results.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13540" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Time" sheetId="3" r:id="rId3"/>
     <sheet name="Activity" sheetId="4" r:id="rId4"/>
+    <sheet name="Execution" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="26">
   <si>
     <t>Data</t>
   </si>
@@ -102,6 +103,9 @@
   </si>
   <si>
     <t>The most frequent substitution</t>
+  </si>
+  <si>
+    <t>LSTMAE</t>
   </si>
 </sst>
 </file>
@@ -262,7 +266,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -294,6 +298,7 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -653,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -682,28 +687,28 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21" t="s">
+      <c r="G1" s="22"/>
+      <c r="H1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="21"/>
+      <c r="K1" s="22"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="18">
         <v>0.3</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -740,8 +745,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
@@ -776,8 +781,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="17">
+      <c r="A4" s="19"/>
+      <c r="B4" s="18">
         <v>0.35</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -814,8 +819,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
@@ -850,8 +855,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="17">
+      <c r="A6" s="19"/>
+      <c r="B6" s="18">
         <v>0.4</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -888,8 +893,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
@@ -924,8 +929,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="17">
+      <c r="A8" s="19"/>
+      <c r="B8" s="18">
         <v>0.5</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -962,8 +967,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
@@ -998,10 +1003,10 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="18">
         <v>0.3</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -1038,8 +1043,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1074,8 +1079,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="17">
+      <c r="A12" s="19"/>
+      <c r="B12" s="18">
         <v>0.35</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -1112,8 +1117,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
@@ -1148,8 +1153,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="17">
+      <c r="A14" s="19"/>
+      <c r="B14" s="18">
         <v>0.4</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1186,8 +1191,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
@@ -1222,8 +1227,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="17">
+      <c r="A16" s="19"/>
+      <c r="B16" s="18">
         <v>0.5</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1260,8 +1265,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
@@ -1296,10 +1301,10 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="18">
         <v>0.3</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1330,8 +1335,8 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="3" t="s">
         <v>7</v>
       </c>
@@ -1360,8 +1365,8 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="17">
+      <c r="A20" s="19"/>
+      <c r="B20" s="18">
         <v>0.35</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -1392,8 +1397,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="3" t="s">
         <v>7</v>
       </c>
@@ -1422,8 +1427,8 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="17">
+      <c r="A22" s="19"/>
+      <c r="B22" s="18">
         <v>0.4</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -1454,8 +1459,8 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="3" t="s">
         <v>7</v>
       </c>
@@ -1484,8 +1489,8 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="17">
+      <c r="A24" s="19"/>
+      <c r="B24" s="18">
         <v>0.5</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -1516,8 +1521,8 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="3" t="s">
         <v>7</v>
       </c>
@@ -1581,13 +1586,13 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="18">
         <v>0.3</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="3" t="s">
@@ -1614,9 +1619,9 @@
       <c r="K28" s="3"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="20"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1641,8 +1646,8 @@
       <c r="K29" s="3"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
       <c r="C30" s="3" t="s">
         <v>7</v>
       </c>
@@ -1664,11 +1669,11 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
-      <c r="B31" s="17">
+      <c r="A31" s="19"/>
+      <c r="B31" s="18">
         <v>0.35</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -1695,9 +1700,9 @@
       <c r="K31" s="3"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="20"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1722,8 +1727,8 @@
       <c r="K32" s="3"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
       <c r="C33" s="3" t="s">
         <v>7</v>
       </c>
@@ -1745,11 +1750,11 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
-      <c r="B34" s="17">
+      <c r="A34" s="19"/>
+      <c r="B34" s="18">
         <v>0.4</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="3" t="s">
@@ -1776,9 +1781,9 @@
       <c r="K34" s="3"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="18"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="20"/>
+      <c r="A35" s="19"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1803,8 +1808,8 @@
       <c r="K35" s="3"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="3" t="s">
         <v>7</v>
       </c>
@@ -1826,11 +1831,11 @@
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="18"/>
-      <c r="B37" s="22">
+      <c r="A37" s="19"/>
+      <c r="B37" s="23">
         <v>0.5</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D37" s="3" t="s">
@@ -1857,9 +1862,9 @@
       <c r="K37" s="3"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="18"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="20"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="3" t="s">
         <v>3</v>
       </c>
@@ -1884,8 +1889,8 @@
       <c r="K38" s="3"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="18"/>
-      <c r="B39" s="24"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="3" t="s">
         <v>7</v>
       </c>
@@ -1907,13 +1912,13 @@
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="18">
         <v>0.3</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -1940,9 +1945,9 @@
       <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="20"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="21"/>
       <c r="D41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1967,8 +1972,8 @@
       <c r="K41" s="3"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
       <c r="C42" s="3" t="s">
         <v>7</v>
       </c>
@@ -1990,11 +1995,11 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
-      <c r="B43" s="17">
+      <c r="A43" s="19"/>
+      <c r="B43" s="18">
         <v>0.35</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D43" s="3" t="s">
@@ -2021,9 +2026,9 @@
       <c r="K43" s="3"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="20"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="21"/>
       <c r="D44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2048,8 +2053,8 @@
       <c r="K44" s="3"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
       <c r="C45" s="3" t="s">
         <v>7</v>
       </c>
@@ -2071,11 +2076,11 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="18"/>
-      <c r="B46" s="17">
+      <c r="A46" s="19"/>
+      <c r="B46" s="18">
         <v>0.4</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D46" s="3" t="s">
@@ -2102,9 +2107,9 @@
       <c r="K46" s="3"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="20"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="21"/>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2129,8 +2134,8 @@
       <c r="K47" s="3"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
       <c r="C48" s="3" t="s">
         <v>7</v>
       </c>
@@ -2152,11 +2157,11 @@
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="18"/>
-      <c r="B49" s="22">
+      <c r="A49" s="19"/>
+      <c r="B49" s="23">
         <v>0.5</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D49" s="3" t="s">
@@ -2183,9 +2188,9 @@
       <c r="K49" s="3"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="18"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="20"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="21"/>
       <c r="D50" s="3" t="s">
         <v>3</v>
       </c>
@@ -2210,8 +2215,8 @@
       <c r="K50" s="3"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="18"/>
-      <c r="B51" s="24"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="25"/>
       <c r="C51" s="3" t="s">
         <v>7</v>
       </c>
@@ -2233,13 +2238,13 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="18" t="s">
+      <c r="A52" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="17">
+      <c r="B52" s="18">
         <v>0.3</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D52" s="3" t="s">
@@ -2258,9 +2263,9 @@
       <c r="K52" s="3"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="18"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="20"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="21"/>
       <c r="D53" s="3" t="s">
         <v>3</v>
       </c>
@@ -2277,8 +2282,8 @@
       <c r="K53" s="3"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
       <c r="C54" s="3" t="s">
         <v>7</v>
       </c>
@@ -2294,11 +2299,11 @@
       <c r="K54" s="3"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="18"/>
-      <c r="B55" s="17">
+      <c r="A55" s="19"/>
+      <c r="B55" s="18">
         <v>0.35</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="3" t="s">
@@ -2313,9 +2318,9 @@
       <c r="K55" s="3"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="18"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="20"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="21"/>
       <c r="D56" s="3" t="s">
         <v>3</v>
       </c>
@@ -2328,8 +2333,8 @@
       <c r="K56" s="3"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
       <c r="C57" s="3" t="s">
         <v>7</v>
       </c>
@@ -2345,11 +2350,11 @@
       <c r="K57" s="3"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="18"/>
-      <c r="B58" s="17">
+      <c r="A58" s="19"/>
+      <c r="B58" s="18">
         <v>0.4</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C58" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D58" s="3" t="s">
@@ -2364,9 +2369,9 @@
       <c r="K58" s="3"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="18"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="20"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="21"/>
       <c r="D59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2379,8 +2384,8 @@
       <c r="K59" s="3"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
+      <c r="A60" s="19"/>
+      <c r="B60" s="19"/>
       <c r="C60" s="3" t="s">
         <v>7</v>
       </c>
@@ -2396,11 +2401,11 @@
       <c r="K60" s="3"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="18"/>
-      <c r="B61" s="22">
+      <c r="A61" s="19"/>
+      <c r="B61" s="23">
         <v>0.5</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C61" s="20" t="s">
         <v>6</v>
       </c>
       <c r="D61" s="3" t="s">
@@ -2415,9 +2420,9 @@
       <c r="K61" s="3"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="18"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="20"/>
+      <c r="A62" s="19"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="21"/>
       <c r="D62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2430,8 +2435,8 @@
       <c r="K62" s="3"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="18"/>
-      <c r="B63" s="24"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="25"/>
       <c r="C63" s="3" t="s">
         <v>7</v>
       </c>
@@ -2505,7 +2510,7 @@
   <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G25"/>
+      <selection activeCell="B18" sqref="B18:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2538,10 +2543,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="18">
         <v>0.3</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -2562,8 +2567,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
@@ -2582,8 +2587,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="17">
+      <c r="A4" s="19"/>
+      <c r="B4" s="18">
         <v>0.35</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -2604,8 +2609,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
@@ -2624,8 +2629,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="17">
+      <c r="A6" s="19"/>
+      <c r="B6" s="18">
         <v>0.4</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -2646,8 +2651,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
@@ -2666,8 +2671,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="17">
+      <c r="A8" s="19"/>
+      <c r="B8" s="18">
         <v>0.5</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -2688,8 +2693,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
@@ -2708,10 +2713,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="18">
         <v>0.3</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -2732,8 +2737,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
@@ -2752,8 +2757,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="17">
+      <c r="A12" s="19"/>
+      <c r="B12" s="18">
         <v>0.35</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -2774,8 +2779,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
@@ -2794,8 +2799,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="17">
+      <c r="A14" s="19"/>
+      <c r="B14" s="18">
         <v>0.4</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -2816,8 +2821,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
@@ -2836,8 +2841,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="17">
+      <c r="A16" s="19"/>
+      <c r="B16" s="18">
         <v>0.5</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -2858,8 +2863,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
       <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
@@ -2878,10 +2883,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="18">
         <v>0.3</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -2896,8 +2901,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
-      <c r="B19" s="18"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="3" t="s">
         <v>7</v>
       </c>
@@ -2910,8 +2915,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
-      <c r="B20" s="17">
+      <c r="A20" s="27"/>
+      <c r="B20" s="18">
         <v>0.35</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -2926,8 +2931,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
-      <c r="B21" s="18"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="3" t="s">
         <v>7</v>
       </c>
@@ -2940,8 +2945,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="26"/>
-      <c r="B22" s="17">
+      <c r="A22" s="27"/>
+      <c r="B22" s="18">
         <v>0.4</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -2956,8 +2961,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
-      <c r="B23" s="18"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="3" t="s">
         <v>7</v>
       </c>
@@ -2970,8 +2975,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="26"/>
-      <c r="B24" s="17">
+      <c r="A24" s="27"/>
+      <c r="B24" s="18">
         <v>0.5</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -2986,8 +2991,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="27"/>
-      <c r="B25" s="18"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="3" t="s">
         <v>7</v>
       </c>
@@ -3026,7 +3031,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J25"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3075,13 +3080,13 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="18">
         <v>0.3</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="29" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -3107,9 +3112,9 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="29"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
@@ -3133,11 +3138,11 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
-      <c r="B4" s="17">
+      <c r="A4" s="19"/>
+      <c r="B4" s="18">
         <v>0.35</v>
       </c>
-      <c r="C4" s="29"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
@@ -3161,9 +3166,9 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="29"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="3" t="s">
         <v>3</v>
       </c>
@@ -3187,11 +3192,11 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
-      <c r="B6" s="17">
+      <c r="A6" s="19"/>
+      <c r="B6" s="18">
         <v>0.4</v>
       </c>
-      <c r="C6" s="29"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="3" t="s">
         <v>4</v>
       </c>
@@ -3215,9 +3220,9 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="29"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
@@ -3241,11 +3246,11 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="17">
+      <c r="A8" s="19"/>
+      <c r="B8" s="18">
         <v>0.5</v>
       </c>
-      <c r="C8" s="29"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
@@ -3269,9 +3274,9 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="29"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
@@ -3295,13 +3300,13 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="18">
         <v>0.3</v>
       </c>
-      <c r="C10" s="29"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
@@ -3325,9 +3330,9 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="29"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="3" t="s">
         <v>3</v>
       </c>
@@ -3351,11 +3356,11 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
-      <c r="B12" s="17">
+      <c r="A12" s="19"/>
+      <c r="B12" s="18">
         <v>0.35</v>
       </c>
-      <c r="C12" s="29"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
@@ -3379,9 +3384,9 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="29"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="3" t="s">
         <v>3</v>
       </c>
@@ -3405,11 +3410,11 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="17">
+      <c r="A14" s="19"/>
+      <c r="B14" s="18">
         <v>0.4</v>
       </c>
-      <c r="C14" s="29"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
@@ -3433,9 +3438,9 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="29"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="3" t="s">
         <v>3</v>
       </c>
@@ -3459,11 +3464,11 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="17">
+      <c r="A16" s="19"/>
+      <c r="B16" s="18">
         <v>0.5</v>
       </c>
-      <c r="C16" s="29"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="3" t="s">
         <v>4</v>
       </c>
@@ -3487,9 +3492,9 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="3" t="s">
         <v>3</v>
       </c>
@@ -3513,13 +3518,13 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="18">
         <v>0.3</v>
       </c>
-      <c r="C18" s="29"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="3" t="s">
         <v>4</v>
       </c>
@@ -3543,9 +3548,9 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="3" t="s">
         <v>3</v>
       </c>
@@ -3569,11 +3574,11 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="17">
+      <c r="A20" s="19"/>
+      <c r="B20" s="18">
         <v>0.35</v>
       </c>
-      <c r="C20" s="29"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
@@ -3597,9 +3602,9 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
@@ -3623,11 +3628,11 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="17">
+      <c r="A22" s="19"/>
+      <c r="B22" s="18">
         <v>0.4</v>
       </c>
-      <c r="C22" s="29"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
@@ -3651,9 +3656,9 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="29"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="3" t="s">
         <v>3</v>
       </c>
@@ -3677,11 +3682,11 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
-      <c r="B24" s="17">
+      <c r="A24" s="19"/>
+      <c r="B24" s="18">
         <v>0.5</v>
       </c>
-      <c r="C24" s="29"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="3" t="s">
         <v>4</v>
       </c>
@@ -3705,9 +3710,9 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
-      <c r="B25" s="17"/>
-      <c r="C25" s="30"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="31"/>
       <c r="D25" s="3" t="s">
         <v>3</v>
       </c>
@@ -3759,13 +3764,13 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -3789,13 +3794,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="12">
         <v>0.3</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="8">
@@ -3809,11 +3814,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
+      <c r="A3" s="19"/>
       <c r="B3" s="12">
         <v>0.35</v>
       </c>
-      <c r="C3" s="29"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="9">
         <v>0.72550000000000003</v>
       </c>
@@ -3825,11 +3830,11 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
+      <c r="A4" s="19"/>
       <c r="B4" s="13">
         <v>0.4</v>
       </c>
-      <c r="C4" s="29"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="9">
         <v>0.75429999999999997</v>
       </c>
@@ -3841,11 +3846,11 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="12">
         <v>0.5</v>
       </c>
-      <c r="C5" s="29"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="9">
         <v>0.69169999999999998</v>
       </c>
@@ -3857,13 +3862,13 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="12">
         <v>0.3</v>
       </c>
-      <c r="C6" s="29"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="9">
         <v>0.61919999999999997</v>
       </c>
@@ -3875,11 +3880,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="12">
         <v>0.35</v>
       </c>
-      <c r="C7" s="29"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="9">
         <v>0.64880000000000004</v>
       </c>
@@ -3891,11 +3896,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="13">
         <v>0.4</v>
       </c>
-      <c r="C8" s="29"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="9">
         <v>0.64329999999999998</v>
       </c>
@@ -3907,11 +3912,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="12">
         <v>0.5</v>
       </c>
-      <c r="C9" s="29"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="9">
         <v>0.60780000000000001</v>
       </c>
@@ -3923,13 +3928,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="19" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="12">
         <v>0.3</v>
       </c>
-      <c r="C10" s="29"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="16">
         <v>0</v>
       </c>
@@ -3941,11 +3946,11 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="12">
         <v>0.35</v>
       </c>
-      <c r="C11" s="29"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="16">
         <v>0</v>
       </c>
@@ -3957,11 +3962,11 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="13">
         <v>0.4</v>
       </c>
-      <c r="C12" s="29"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="16">
         <v>0</v>
       </c>
@@ -3973,11 +3978,11 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="12">
         <v>0.5</v>
       </c>
-      <c r="C13" s="30"/>
+      <c r="C13" s="31"/>
       <c r="D13" s="16">
         <v>0</v>
       </c>
@@ -3998,4 +4003,55 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="15">
+        <v>420</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="15">
+        <v>5700</v>
+      </c>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>